--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3D6D53-1CC7-4986-9005-66E02B749DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172FC7CA-6656-4988-842C-4D2CCCA6C774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="885" windowWidth="37935" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="120">
   <si>
     <t>Element</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>SHALL</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -271,24 +268,6 @@
     <t>should_include</t>
   </si>
   <si>
-    <t>conf_Encounter</t>
-  </si>
-  <si>
-    <t>conf_Location</t>
-  </si>
-  <si>
-    <t>conf_Organization</t>
-  </si>
-  <si>
-    <t>conf_Patient</t>
-  </si>
-  <si>
-    <t>conf_Practitioner</t>
-  </si>
-  <si>
-    <t>conf_PractitionerRole</t>
-  </si>
-  <si>
     <t>conditionalCreate</t>
   </si>
   <si>
@@ -331,122 +310,18 @@
     <t>referencePolicy_conf</t>
   </si>
   <si>
-    <t>Coverage</t>
-  </si>
-  <si>
-    <t>conf_Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> US Core Implementation Guide STU 3</t>
-  </si>
-  <si>
     <t>doc</t>
   </si>
   <si>
-    <t>Bundle</t>
-  </si>
-  <si>
-    <t>conf_Bundle</t>
-  </si>
-  <si>
     <t>client</t>
   </si>
   <si>
-    <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the  [Security](security.html) page for requirements and recommendations.
-</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
     <t>fhirVersion</t>
   </si>
   <si>
-    <t>Da Vinci Notifications Bundle Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Notifications MessageHeader Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Notifications MessageDefinition Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Notifications GraphDefinition Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Admit Notification MessageHeader Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Discharge Notification MessageHeader Profile</t>
-  </si>
-  <si>
-    <t>MessageHeader</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Encounter</t>
-  </si>
-  <si>
-    <t>MessageDefinition</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>Practitioner</t>
-  </si>
-  <si>
-    <t>PractitionerRole</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>conf_MessageHeader</t>
-  </si>
-  <si>
-    <t>conf_GraphDefinition</t>
-  </si>
-  <si>
-    <t>conf_MessageDefinition</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/OperationDefinition/MessageHeader-process-message</t>
-  </si>
-  <si>
-    <t>GraphDefinition</t>
-  </si>
-  <si>
-    <t>conf_Condition</t>
-  </si>
-  <si>
-    <t>Required resource type to carry information regarding admission and discharge event in the Da Vinci Notification message bundle</t>
-  </si>
-  <si>
-    <t>process-message</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-messageheader</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-bundle</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-notification-messageheader</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/discharge-notification-messageheader</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -474,133 +349,109 @@
     <t>publishervalue</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts|1.0.0</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>4.0.1</t>
   </si>
   <si>
-    <t>!http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-messagedefinition</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-graphdefinition</t>
-  </si>
-  <si>
-    <t>!MessageDefinition</t>
-  </si>
-  <si>
-    <t>!GraphDefinition</t>
-  </si>
-  <si>
-    <t>doc_Coverage</t>
-  </si>
-  <si>
-    <t>notification-forwarder</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci Intermediary when forwarding Unsolicited Notifications transacted with the `$process-message` in the client mode.</t>
-  </si>
-  <si>
-    <t>The Da Vinci Notification Intermediary **SHALL**:
-1. Support the notification framework defined in this Guide for the Intermediary forwarding notifications.
-1. Implement the RESTful behavior according to the FHIR specification.
+    <t>profile_conf</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/</t>
+  </si>
+  <si>
+    <t>HL7 International - Patient Care Work Group</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the Da Vinci HRex Implementation Guide section on [Security and Privacy](http://hl7.org/fhir/us/davinci-hrex/2020Sep/security.html)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/ImplementationGuide/hl7.fhir.us.davinci-cdex|0.2.0</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Required resource type to subscribe to data source</t>
+  </si>
+  <si>
+    <t>conf_Subscription</t>
+  </si>
+  <si>
+    <t>doc_Subscription</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in Client mode when during a clnical data exchange with a Data Consumer using either Direct Query or the Task based approach. This includes the following interactions:
+1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest
+1. Postiing a subscription notification to a Data Consumer endpoint updating the status of a Task</t>
+  </si>
+  <si>
+    <t>The  Da Vinci CDex Data Source **SHALL**:
+1. Support  theTask Based Approach approaches for requesting information as defined in this Guide:
 1. Support json source formats for all Da Vinci Notification interactions.
-1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
-The Da Vinci Notifications Intermediary **SHOULD**:
-1. Support the admission/discharge use case defined in this Guide.
-1. Support xml source formats for all Da Vinci Notification interactions.
-1. Identify the Da Vinci or US Core profiles supported as part of the FHIR `meta.profile` attribute for each instance.</t>
-  </si>
-  <si>
-    <t>doc_Bundle</t>
-  </si>
-  <si>
-    <t>The Intermediary SHALL notify the Recipient or Intermediary using the $process-message operation.Forwarding notifications using this framework is a point to point FHIR RESTful transaction.  The intermediary **SHALL** always modify the MessageHeader as described below and **MAY** change the other contents of the bundle per agreement between the Intermediary and Sender or Receiver.  When forwarding the notification, the Intermediary **SHALL**:
-1. Create a new message bundle with a new `Bundle.id` and new `MessageHeader.id`
-1. Update the `MessageHeader.sender` to reflect the Intermediary as the new Sender
-1. Update the `MessageHeader.destination.url` elements to reflect the new Recipient/Intermediary.
-1. Add a [US Core Provenance Profile] with `Provenance.target` pointing to MessageHeader and using the guidance provided in [Basic Provenance for HIE Redistribution and Transformation].
-    - `Provenance.agent.type` = "author" set to the Sender
-    - If *no* change to the bundle contents:
-      `Provenance.agent.type` = "transmitter" set to the Intermediary
-    - If changes to the bundle contents:
-       `Provenance.agent.type` = "assembler" set to the Intermediary</t>
-  </si>
-  <si>
-    <t>profile_conf</t>
-  </si>
-  <si>
-    <t>Provenance</t>
-  </si>
-  <si>
-    <t>conf_Provenance</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-condition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-coverage</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-encounter</t>
-  </si>
-  <si>
-    <t>Da Vinci Admit/Transfer/Discharge Notification Condition Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Admit/Transfer/Discharge Notification Coverage Profile</t>
-  </si>
-  <si>
-    <t>​Da Vinci Admit/Transfer/Discharge Notification Encounter Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/transfer-notification-messageheader</t>
-  </si>
-  <si>
-    <t>Da Vinci Transfer Notification MessageHeader Profile</t>
-  </si>
-  <si>
-    <t>Forwarding notifications using the Da Vinci Unsolicited Notifications framework is a point to point FHIR RESTful transaction. The intermediary **SHALL** always modify the MessageHeader as described below and **MAY** change the other contents of the bundle per agreement between the Intermediary and Sender or Receiver.  When forwarding the notification, the Intermediary **SHALL**:
-1. Create a new message bundle with a new `Bundle.id` and new`MessageHeader.id`
-1. Update the `MessageHeader.sender` to reflect the Intermediary as the new Sender
-1. Replace the resource in the Bundle with the resource referenced by the updated `MessageHeader.sender` element.
-1. Update the `MessageHeader.destination` to reflect the new Recipient/Intermediary.</t>
-  </si>
-  <si>
-    <t>The Provenance resource is required to record changes to the Vinci Notification message bundle when forwarding the notification. The Intermediary **SHALL** add a [US Core Provenance Profile](https://www.hl7.org/fhir/us/core/StructureDefinition-us-core-provenance.html) to the message bundle. The `Provenance.target` references the MessageHeader and following the guidance provided in [Basic Provenance for HIE Redistribution and Transformation](https://www.hl7.org/fhir/us/core/basic-provenance.html#hie-redistribution):
-- `Provenance.agent.type` = "author" set to the Sender
-- If *no* change to the bundle contents:
-      `Provenance.agent.type` = "transmitter" set to the Intermediary
-- If changes to the bundle contents:
-       `Provenance.agent.type` = "assembler" set to the Intermediary</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDex/input/</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDex/output/</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/</t>
-  </si>
-  <si>
-    <t>HL7 International - Patient Care Work Group</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
+1. Declare a CapabilityStatement identifying  transactions and profiles supported.
+The  Da Vinci CDex Data Source  **SHOULD**:
+1. Support xml source formats for all Da Vinci CDex interactions.</t>
+  </si>
+  <si>
+    <t>CommunicationRequest</t>
+  </si>
+  <si>
+    <t>Required resource type to carry authorization information regarding for requesting Clniical information</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>conf_CommunicationRequest</t>
+  </si>
+  <si>
+    <t>doc_CommunicationRequest</t>
+  </si>
+  <si>
+    <t>conf_ServiceRequest</t>
+  </si>
+  <si>
+    <t>doc_ServiceRequest</t>
+  </si>
+  <si>
+    <t>If subscriptions are supported the subscription notification is posted to it endpoint updating the status of a Task</t>
+  </si>
+  <si>
+    <t>Either a CommunicationRequest or ServiceRequest is required if an Authorization is required for a particular clinical data exchange scenario</t>
+  </si>
+  <si>
+    <t>data-source-client</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,18 +512,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF005C00"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF032F62"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -686,7 +525,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -703,27 +542,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -747,11 +571,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1069,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1085,59 +905,59 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1172,34 +992,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
@@ -1712,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1735,23 +1555,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1">
@@ -1759,15 +1579,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>132</v>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1775,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="207.75" customHeight="1">
@@ -1783,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -1791,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1801,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1814,25 +1634,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1844,7 +1663,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1870,251 +1689,46 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="B4" s="15"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1"/>
+    <row r="6" spans="1:6" s="1" customFormat="1"/>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D12)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f>"US Core "&amp;D12&amp;" Profile"</f>
-        <v>US Core Provenance Profile</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="str">
-        <f t="shared" ref="A13:A17" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D13)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <f t="shared" ref="B13:B17" si="1">"US Core "&amp;D13&amp;" Profile"</f>
-        <v>US Core Location Profile</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>US Core Organization Profile</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1"/>
     <row r="15" spans="1:6">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>US Core Patient Profile</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>US Core Practitioner Profile</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>US Core PractitionerRole Profile</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
@@ -2156,13 +1770,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2183,225 +1797,121 @@
   <sheetData>
     <row r="1" spans="1:25" ht="18" thickBot="1">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="V1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="X1" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="285.75" thickTop="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="45.75" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="45">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" ht="45">
-      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="45">
-      <c r="A7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="45">
-      <c r="A8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="45">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="45">
-      <c r="A10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="45">
-      <c r="A11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="45">
-      <c r="A12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="45">
-      <c r="A13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="300">
-      <c r="A14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="22:25" ht="18">
-      <c r="V36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-    </row>
-    <row r="39" spans="22:25" ht="18">
-      <c r="Y39" s="7"/>
+    </row>
+    <row r="35" spans="22:25" ht="18">
+      <c r="V35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+    </row>
+    <row r="38" spans="22:25" ht="18">
+      <c r="Y38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2411,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2426,42 +1936,25 @@
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="285.75" thickBot="1">
-      <c r="A2" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="E4" s="2"/>
+    <row r="3" spans="1:5">
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2471,11 +1964,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2492,478 +1985,181 @@
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2973,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2987,19 +2183,47 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="C2" s="2"/>
-      <c r="G2" s="2"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3046,88 +2270,88 @@
   <sheetData>
     <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Z1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="AB1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172FC7CA-6656-4988-842C-4D2CCCA6C774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA4EBDC-E926-4055-AFEE-307874E990BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="885" windowWidth="37935" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -404,11 +404,6 @@
     <t>history-system</t>
   </si>
   <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in Client mode when during a clnical data exchange with a Data Consumer using either Direct Query or the Task based approach. This includes the following interactions:
-1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest
-1. Postiing a subscription notification to a Data Consumer endpoint updating the status of a Task</t>
-  </si>
-  <si>
     <t>The  Da Vinci CDex Data Source **SHALL**:
 1. Support  theTask Based Approach approaches for requesting information as defined in this Guide:
 1. Support json source formats for all Da Vinci Notification interactions.
@@ -445,6 +440,11 @@
   </si>
   <si>
     <t>data-source-client</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Client* mode during a clinical data exchange with a Data Consumer. This includes the following interactions:
+1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest
+1. Postiing a subscription notification to a Data Consumer endpoint updating the status of a Task</t>
   </si>
 </sst>
 </file>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1555,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
@@ -1579,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -1874,24 +1874,24 @@
     </row>
     <row r="2" spans="1:25" ht="45.75" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1990,16 +1990,16 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>102</v>
@@ -2039,7 +2039,7 @@
         <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2050,13 +2050,13 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>25</v>
@@ -2094,7 +2094,7 @@
         <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA4EBDC-E926-4055-AFEE-307874E990BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9668A-3E73-4161-A348-316B04083430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <si>
     <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Client* mode during a clinical data exchange with a Data Consumer. This includes the following interactions:
 1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest
-1. Postiing a subscription notification to a Data Consumer endpoint updating the status of a Task</t>
+1. Posting a subscription notification to a Data Consumer endpoint updating the status of a Task</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9668A-3E73-4161-A348-316B04083430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6B0B0B-6E07-8048-A6DE-C8D835885EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -364,12 +364,6 @@
     <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
   </si>
   <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
-  </si>
-  <si>
     <t>0.2.0</t>
   </si>
   <si>
@@ -446,12 +440,18 @@
 1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest
 1. Posting a subscription notification to a Data Consumer endpoint updating the status of a Task</t>
   </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,15 +887,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -903,24 +903,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
@@ -928,7 +928,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -936,7 +936,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -944,7 +944,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -952,13 +952,16 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>94</v>
       </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -976,21 +979,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1022,56 +1025,56 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1079,7 +1082,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1088,7 +1091,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1096,14 +1099,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1111,27 +1114,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1139,14 +1142,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1155,7 +1158,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1163,20 +1166,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1184,7 +1187,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1192,7 +1195,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1200,25 +1203,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1227,7 +1230,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1236,7 +1239,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1245,7 +1248,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1254,203 +1257,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="15.75">
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1462,62 +1465,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1532,17 +1535,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1550,23 +1553,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -1574,23 +1577,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1598,20 +1601,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1">
+    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1627,12 +1630,12 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1643,12 +1646,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1666,15 +1669,15 @@
       <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1688,78 +1691,78 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="15"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1"/>
-    <row r="6" spans="1:6" s="1" customFormat="1"/>
-    <row r="7" spans="1:6">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1"/>
-    <row r="15" spans="1:6">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F27" s="1"/>
     </row>
   </sheetData>
@@ -1779,23 +1782,23 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1872,45 +1875,45 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="45.75" thickTop="1">
+    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="22:25" ht="18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
     </row>
-    <row r="38" spans="22:25" ht="18">
+    <row r="38" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="Y38" s="7"/>
     </row>
   </sheetData>
@@ -1927,16 +1930,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -1971,44 +1974,44 @@
       <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="37.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2024,7 +2027,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -2039,10 +2042,10 @@
         <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2050,20 +2053,20 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2079,7 +2082,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -2094,10 +2097,10 @@
         <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2113,7 +2116,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2129,7 +2132,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2145,7 +2148,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2175,13 +2178,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2193,33 +2196,33 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
@@ -2241,34 +2244,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -2354,29 +2357,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2386,7 +2389,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2395,7 +2398,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2406,7 +2409,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2422,7 +2425,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2434,7 +2437,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2442,7 +2445,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2452,7 +2455,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2462,12 +2465,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2475,7 +2478,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="18.95" customHeight="1">
+    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2486,7 +2489,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="18.95" customHeight="1">
+    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2497,7 +2500,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="18.95" customHeight="1">
+    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -2507,7 +2510,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="18.95" customHeight="1">
+    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -2516,7 +2519,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="18.95" customHeight="1">
+    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -2525,21 +2528,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="18.95" customHeight="1">
+    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="18.95" customHeight="1">
+    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="18.95" customHeight="1">
+    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -2548,7 +2551,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="18.95" customHeight="1">
+    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -2556,7 +2559,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="18.95" customHeight="1">
+    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2567,7 +2570,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="18.95" customHeight="1">
+    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2579,304 +2582,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="18.95" customHeight="1">
+    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="18.95" customHeight="1">
+    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="18.95" customHeight="1">
+    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="18.95" customHeight="1">
+    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="18.95" customHeight="1">
+    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="18.95" customHeight="1">
+    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="18.95" customHeight="1">
+    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="18.95" customHeight="1">
+    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="18.95" customHeight="1">
+    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="18.95" customHeight="1">
+    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="18.95" customHeight="1">
+    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71CD2E2-7BAD-2941-BE31-10BF90958FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D50DBC5-AF31-0E4F-BF1E-79D52569504C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="-17540" windowWidth="26840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="26840" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="145">
   <si>
     <t>Element</t>
   </si>
@@ -353,13 +353,6 @@
     <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
   </si>
   <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
-    <t>1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the Da Vinci HRex Implementation Guide section on [Security and Privacy](http://hl7.org/fhir/us/davinci-hrex/2020Sep/security.html)</t>
-  </si>
-  <si>
     <t>Subscription</t>
   </si>
   <si>
@@ -414,11 +407,6 @@
     <t>data-source-client</t>
   </si>
   <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Client* mode during a clinical data exchange with a Data Consumer. This includes the following interactions:
-1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest
-1. Posting a subscription notification to a Data Consumer endpoint updating the status of a Task</t>
-  </si>
-  <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
   </si>
   <si>
@@ -467,12 +455,74 @@
     <t>revinclude_conf</t>
   </si>
   <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
+  </si>
+  <si>
+    <t>1. POSTing the `$submit-attachment` operation to exchange clinical data using a FHIR based Attachments transaction.
+1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest.
+1. Posting a subscription notification to a Data Consumer endpoint updating the status of a Task.</t>
+  </si>
+  <si>
     <t>The  Da Vinci CDex Data Source **SHALL**:
-1. Support the Task Based Approach approaches for requesting information as defined in this Guide:
-1. Support json source formats for all Da Vinci CDex interactions.
+1. Support at least one of the these FHIR transaction approaches for exchanging clinical information as defined in this Guide:
+     1. Task Based Approach
+     1. Attachments
+1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.1. Support json source formats for all Da Vinci CDex interactions.
 1. Declare a CapabilityStatement identifying  transactions and profiles supported.
 The  Da Vinci CDex Data Source  **SHOULD**:
 1. Support xml source formats for all Da Vinci CDex interactions.</t>
+  </si>
+  <si>
+    <t>Data Consumer Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-consumer-client</t>
+  </si>
+  <si>
+    <t>SHALL</t>
+  </si>
+  <si>
+    <t>US Core Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>DocumentReference</t>
+  </si>
+  <si>
+    <t>Required resource type to support the `$submit-attachment` operation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile</t>
+  </si>
+  <si>
+    <t>conf_DocumentReference</t>
+  </si>
+  <si>
+    <t>doc_DocumentReference</t>
+  </si>
+  <si>
+    <t>submit-attachment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/OperationDefinition/submit-attachment</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>If [Attachments](attachments.html) is supported, the Data Source Client **SHALL**  support the `$submit-attachment` operation.</t>
   </si>
 </sst>
 </file>
@@ -962,7 +1012,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -971,7 +1021,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1016,7 +1066,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2257,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2280,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2288,7 +2338,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2304,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2328,34 +2378,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2365,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896FFC80-FBAD-5B40-A9F0-9F6A2CF3035F}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2378,16 +2428,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>84</v>
@@ -2396,13 +2446,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="1"/>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2428,7 +2504,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>84</v>
@@ -2457,7 +2533,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2485,8 +2561,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
@@ -2572,10 +2662,10 @@
   <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2659,50 +2749,63 @@
         <v>72</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="35" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V35" s="7"/>
@@ -2722,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2752,6 +2855,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" s="2"/>
     </row>
@@ -2763,67 +2883,76 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="2" max="5" width="37.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2831,38 +2960,44 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>24</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2872,31 +3007,37 @@
       <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -2906,13 +3047,16 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -2922,13 +3066,16 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2938,13 +3085,16 @@
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -2954,11 +3104,14 @@
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2994,7 +3147,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -3002,7 +3155,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
@@ -3010,7 +3163,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -3018,7 +3171,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D50DBC5-AF31-0E4F-BF1E-79D52569504C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B81858-F0EF-CB46-9C2E-8AC119301BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="26840" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="26840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -462,11 +462,6 @@
 1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
   </si>
   <si>
-    <t>1. POSTing the `$submit-attachment` operation to exchange clinical data using a FHIR based Attachments transaction.
-1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest.
-1. Posting a subscription notification to a Data Consumer endpoint updating the status of a Task.</t>
-  </si>
-  <si>
     <t>The  Da Vinci CDex Data Source **SHALL**:
 1. Support at least one of the these FHIR transaction approaches for exchanging clinical information as defined in this Guide:
      1. Task Based Approach
@@ -523,6 +518,12 @@
   </si>
   <si>
     <t>If [Attachments](attachments.html) is supported, the Data Source Client **SHALL**  support the `$submit-attachment` operation.</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Client* mode during a clinical data exchange with a Data Consumer. This includes the following interactions:
+1. POSTing the `$submit-attachment` operation to exchange clinical data using a FHIR based Attachments transaction.
+1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest.
+1. Posting a subscription notification to a Data Consumer endpoint updating the status of a Task.</t>
   </si>
 </sst>
 </file>
@@ -2307,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2354,7 +2355,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2370,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2451,16 +2452,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2468,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>134</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2563,19 +2564,19 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2796,13 +2797,13 @@
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2825,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2857,19 +2858,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2909,10 +2910,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>102</v>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B81858-F0EF-CB46-9C2E-8AC119301BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7519721-4BD6-6149-94B9-9D1D56CC5E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="26840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="26840" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -410,9 +410,6 @@
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
   </si>
   <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
-  </si>
-  <si>
     <t>imports</t>
   </si>
   <si>
@@ -524,6 +521,9 @@
 1. POSTing the `$submit-attachment` operation to exchange clinical data using a FHIR based Attachments transaction.
 1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest.
 1. Posting a subscription notification to a Data Consumer endpoint updating the status of a Task.</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
   </si>
 </sst>
 </file>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1022,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2308,7 +2308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2339,7 +2339,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2355,7 +2355,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2371,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,34 +2379,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2429,16 +2429,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>84</v>
@@ -2452,16 +2452,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2469,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>84</v>
@@ -2564,19 +2564,19 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2750,16 +2750,16 @@
         <v>72</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
@@ -2797,13 +2797,13 @@
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2858,19 +2858,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2910,10 +2910,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>102</v>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7519721-4BD6-6149-94B9-9D1D56CC5E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56072D-9EA6-DC48-827A-E527F64C4824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="460" windowWidth="26840" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,7 +991,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56072D-9EA6-DC48-827A-E527F64C4824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F71AF76-3361-0E41-9A13-E787A32FDC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="26840" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="26840" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -380,9 +380,6 @@
     <t>CommunicationRequest</t>
   </si>
   <si>
-    <t>Required resource type to carry authorization information regarding for requesting Clniical information</t>
-  </si>
-  <si>
     <t>ServiceRequest</t>
   </si>
   <si>
@@ -524,6 +521,9 @@
   </si>
   <si>
     <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
+  </si>
+  <si>
+    <t>Required resource type to carry authorization information regarding for requesting Clinical information</t>
   </si>
 </sst>
 </file>
@@ -990,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1013,7 +1013,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1022,7 +1022,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2339,7 +2339,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2355,7 +2355,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2371,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,34 +2379,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2429,16 +2429,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>84</v>
@@ -2452,16 +2452,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2469,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>132</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>84</v>
@@ -2564,19 +2564,19 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2662,11 +2662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2750,16 +2750,16 @@
         <v>72</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
@@ -2770,18 +2770,18 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -2797,13 +2797,13 @@
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2858,19 +2858,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2910,22 +2910,22 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>93</v>
@@ -2971,7 +2971,7 @@
         <v>51</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2985,13 +2985,13 @@
         <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>24</v>
@@ -3035,7 +3035,7 @@
         <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F71AF76-3361-0E41-9A13-E787A32FDC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C857E46-8976-FF45-AC56-48E6FAF83BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="26840" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="760" windowWidth="26840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -404,9 +404,6 @@
     <t>data-source-client</t>
   </si>
   <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
     <t>imports</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
   </si>
   <si>
     <t>format_conf</t>
-  </si>
-  <si>
-    <t>SHALL,SHOULD</t>
   </si>
   <si>
     <t>patchFormat</t>
@@ -456,74 +450,82 @@
 1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
   </si>
   <si>
-    <t>The  Da Vinci CDex Data Source **SHALL**:
+    <t>Data Consumer Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-consumer-client</t>
+  </si>
+  <si>
+    <t>SHALL</t>
+  </si>
+  <si>
+    <t>US Core Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>DocumentReference</t>
+  </si>
+  <si>
+    <t>Required resource type to support the `$submit-attachment` operation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile</t>
+  </si>
+  <si>
+    <t>conf_DocumentReference</t>
+  </si>
+  <si>
+    <t>doc_DocumentReference</t>
+  </si>
+  <si>
+    <t>submit-attachment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/OperationDefinition/submit-attachment</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>If [Attachments](attachments.html) is supported, the Data Source Client **SHALL**  support the `$submit-attachment` operation.</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Client* mode during a clinical data exchange with a Data Consumer. This includes the following interactions:
+1. POSTing the `$submit-attachment` operation to exchange clinical data using a FHIR based Attachments transaction.
+1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest.
+1. Posting a subscription notification to a Data Consumer endpoint updating the status of a Task.</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
+  </si>
+  <si>
+    <t>Required resource type to carry authorization information regarding for requesting Clinical information</t>
+  </si>
+  <si>
+    <t>SHALL,MAY</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The  Da Vinci CDex Data Source **SHALL**:
 1. Support at least one of the these FHIR transaction approaches for exchanging clinical information as defined in this Guide:
      1. Task Based Approach
      1. Attachments
 1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.1. Support json source formats for all Da Vinci CDex interactions.
 1. Declare a CapabilityStatement identifying  transactions and profiles supported.
-The  Da Vinci CDex Data Source  **SHOULD**:
-1. Support xml source formats for all Da Vinci CDex interactions.</t>
-  </si>
-  <si>
-    <t>Data Consumer Client CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-consumer-client</t>
-  </si>
-  <si>
-    <t>SHALL</t>
-  </si>
-  <si>
-    <t>US Core Client CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-client.html</t>
-  </si>
-  <si>
-    <t>DocumentReference</t>
-  </si>
-  <si>
-    <t>Required resource type to support the `$submit-attachment` operation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
-  </si>
-  <si>
-    <t>US Core DocumentReference Profile</t>
-  </si>
-  <si>
-    <t>conf_DocumentReference</t>
-  </si>
-  <si>
-    <t>doc_DocumentReference</t>
-  </si>
-  <si>
-    <t>submit-attachment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/OperationDefinition/submit-attachment</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>If [Attachments](attachments.html) is supported, the Data Source Client **SHALL**  support the `$submit-attachment` operation.</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Client* mode during a clinical data exchange with a Data Consumer. This includes the following interactions:
-1. POSTing the `$submit-attachment` operation to exchange clinical data using a FHIR based Attachments transaction.
-1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest.
-1. Posting a subscription notification to a Data Consumer endpoint updating the status of a Task.</t>
-  </si>
-  <si>
-    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
-  </si>
-  <si>
-    <t>Required resource type to carry authorization information regarding for requesting Clinical information</t>
+The  Da Vinci CDex Data Source  **MAY**:
+1. Support XML source formats for all Da Vinci CDex interactions.
+   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON.  Transforms to and from XML will invalidate signatures.
+</t>
   </si>
 </sst>
 </file>
@@ -991,7 +993,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1013,7 +1015,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1022,7 +1024,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1067,7 +1069,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2308,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2339,7 +2341,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2355,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2371,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,34 +2381,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2429,16 +2431,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>84</v>
@@ -2452,16 +2454,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2469,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2507,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>84</v>
@@ -2564,19 +2566,19 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2662,7 +2664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2750,16 +2752,16 @@
         <v>72</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
@@ -2770,7 +2772,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2781,7 +2783,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -2797,13 +2799,13 @@
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2858,19 +2860,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2910,10 +2912,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>101</v>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C857E46-8976-FF45-AC56-48E6FAF83BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD4E417-27FD-5549-96F1-17039A2F4C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="760" windowWidth="26840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41840" yWindow="9120" windowWidth="34140" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$B$1:$B$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="143">
   <si>
     <t>Element</t>
   </si>
@@ -353,18 +353,6 @@
     <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
   </si>
   <si>
-    <t>Subscription</t>
-  </si>
-  <si>
-    <t>Required resource type to subscribe to data source</t>
-  </si>
-  <si>
-    <t>conf_Subscription</t>
-  </si>
-  <si>
-    <t>doc_Subscription</t>
-  </si>
-  <si>
     <t>transaction</t>
   </si>
   <si>
@@ -393,9 +381,6 @@
   </si>
   <si>
     <t>doc_ServiceRequest</t>
-  </si>
-  <si>
-    <t>If subscriptions are supported the subscription notification is posted to it endpoint updating the status of a Task</t>
   </si>
   <si>
     <t>Either a CommunicationRequest or ServiceRequest is required if an Authorization is required for a particular clinical data exchange scenario</t>
@@ -498,33 +483,43 @@
     <t>If [Attachments](attachments.html) is supported, the Data Source Client **SHALL**  support the `$submit-attachment` operation.</t>
   </si>
   <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Client* mode during a clinical data exchange with a Data Consumer. This includes the following interactions:
-1. POSTing the `$submit-attachment` operation to exchange clinical data using a FHIR based Attachments transaction.
+    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
+  </si>
+  <si>
+    <t>Required resource type to carry authorization information regarding for requesting Clinical information</t>
+  </si>
+  <si>
+    <t>SHALL,MAY</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>conf_Parameters</t>
+  </si>
+  <si>
+    <t>doc_Parameters</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source  in *Client* mode during clinical data exchange with a Data Consumer. The capabilities include one or more of the following interactions:
+1. Post the `$submit-attachment` operation to a Data Consumer endpoint.
 1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest.
-1. Posting a subscription notification to a Data Consumer endpoint updating the status of a Task.</t>
-  </si>
-  <si>
-    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
-  </si>
-  <si>
-    <t>Required resource type to carry authorization information regarding for requesting Clinical information</t>
-  </si>
-  <si>
-    <t>SHALL,MAY</t>
-  </si>
-  <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The  Da Vinci CDex Data Source **SHALL**:
-1. Support at least one of the these FHIR transaction approaches for exchanging clinical information as defined in this Guide:
-     1. Task Based Approach
+1. Post a subscription notification to a Data Consumer endpoint updating the status of a task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The  Da Vinci CDex Data Source Client **SHALL**:
+1. Support at least one of the CDex approaches for exchanging clinical information
+     1. Task-Based Approach
      1. Attachments
-1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.1. Support json source formats for all Da Vinci CDex interactions.
-1. Declare a CapabilityStatement identifying  transactions and profiles supported.
-The  Da Vinci CDex Data Source  **MAY**:
+1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
+1. Support JSON source formats for all Da Vinci CDex interactions.
+1. Declare a CapabilityStatement identifying transactions, and profiles supported.
+The  Da Vinci CDex Data Source Client **MAY**:
 1. Support XML source formats for all Da Vinci CDex interactions.
-   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON.  Transforms to and from XML will invalidate signatures.
+   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON. Transforms to and from XML will invalidate signatures.
 </t>
   </si>
 </sst>
@@ -1015,7 +1010,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1024,7 +1019,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1069,7 +1064,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2333,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2341,7 +2336,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2357,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2373,7 +2368,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2381,34 +2376,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2431,16 +2426,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>84</v>
@@ -2454,16 +2449,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2471,16 +2466,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2502,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>84</v>
@@ -2536,15 +2531,16 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="88.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2566,19 +2562,19 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2662,13 +2658,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2752,71 +2748,71 @@
         <v>72</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="35" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="V35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-    </row>
-    <row r="38" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="Y38" s="7"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="V34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+    </row>
+    <row r="37" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="Y37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2860,19 +2856,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2886,76 +2882,77 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:C1048576"/>
+      <selection pane="topRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="37.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="2" max="7" width="37.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2966,17 +2963,15 @@
         <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>24</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2986,21 +2981,21 @@
       <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -3013,13 +3008,13 @@
       <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -3027,20 +3022,18 @@
         <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -3053,13 +3046,13 @@
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -3072,13 +3065,13 @@
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3091,13 +3084,13 @@
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -3110,11 +3103,11 @@
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3150,7 +3143,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -3158,7 +3151,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
@@ -3166,7 +3159,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -3174,7 +3167,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD4E417-27FD-5549-96F1-17039A2F4C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E5D996-0992-2549-A84C-8E43530B8741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41840" yWindow="9120" windowWidth="34140" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57540" yWindow="500" windowWidth="34120" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="153">
   <si>
     <t>Element</t>
   </si>
@@ -502,12 +502,6 @@
   </si>
   <si>
     <t>doc_Parameters</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source  in *Client* mode during clinical data exchange with a Data Consumer. The capabilities include one or more of the following interactions:
-1. Post the `$submit-attachment` operation to a Data Consumer endpoint.
-1. Query for Authorization information represented by a CommunicationRequest or ServiceRequest.
-1. Post a subscription notification to a Data Consumer endpoint updating the status of a task.</t>
   </si>
   <si>
     <t xml:space="preserve">The  Da Vinci CDex Data Source Client **SHALL**:
@@ -517,19 +511,64 @@
 1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
 1. Support JSON source formats for all Da Vinci CDex interactions.
 1. Declare a CapabilityStatement identifying transactions, and profiles supported.
+    - Follow the guidelines for [Conforming to CDex Attachments](attachments-conformance.html) if supporting this exchange.
 The  Da Vinci CDex Data Source Client **MAY**:
 1. Support XML source formats for all Da Vinci CDex interactions.
    &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON. Transforms to and from XML will invalidate signatures.
 </t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source  in *Client* mode during clinical data exchange with a Data Consumer. The capabilities include one or more of the following interactions:
+1. Post the `$submit-attachment` operation to a Data Consumer endpoint.
+2. Launch Da Vinci DTR.
+3. Query for Authorization information represented by a CommunicationRequest or ServiceRequest.
+4. Post a subscription notification to a Data Consumer endpoint updating the status of a task.</t>
+  </si>
+  <si>
+    <t>Documentation Templates and Rules 1.1.0-ballot</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|1.1.0-ballot</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/2022May/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-sdc-questionnaireresponse</t>
+  </si>
+  <si>
+    <t>CDex SDC QuestionnaireResponse Profile</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-sdc-questionnaireresponse.html</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>Required resource type to support the `$submit-attachment` operation for Requesting Attachments Using Questionnaires. *SHALL** support CDex SDC QuestionnaireResponse Profile for signed QuestionnaireResponse.</t>
+  </si>
+  <si>
+    <t>conf_QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>doc_QuestionnaireResponse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -587,12 +626,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -609,6 +642,20 @@
       <sz val="11"/>
       <color rgb="FF005C00"/>
       <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -638,12 +685,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -651,28 +698,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -689,7 +741,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -977,7 +1029,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -997,81 +1049,77 @@
     <col min="2" max="2" width="70.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1091,641 +1139,470 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="12"/>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA4" s="12"/>
-    </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="12"/>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="12"/>
+    <row r="2" spans="1:28" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="C7" s="6"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="1"/>
+      <c r="AA8" s="10"/>
     </row>
     <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="J9"/>
-      <c r="X9"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="1"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="10"/>
     </row>
     <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="J10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="1"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="10"/>
     </row>
     <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="E11"/>
-      <c r="J11"/>
-      <c r="O11"/>
-      <c r="X11"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="1"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="10"/>
     </row>
     <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="E12"/>
-      <c r="J12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="1"/>
+      <c r="AA12" s="10"/>
     </row>
     <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="J13"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="1"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="J14"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="12"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="E16"/>
-      <c r="J16"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="J17"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="J19"/>
-      <c r="X19"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="X20"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="E22"/>
-      <c r="Z22"/>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23"/>
-      <c r="E23"/>
-      <c r="J23" s="6"/>
-      <c r="Y23"/>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="E24"/>
-      <c r="J24"/>
-      <c r="Y24"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="E25"/>
-      <c r="J25" s="6"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="J26"/>
-      <c r="X26"/>
-      <c r="Y26" s="5"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="J27"/>
-      <c r="Q27"/>
-      <c r="X27"/>
-      <c r="Y27" s="5"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="J28"/>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29"/>
-      <c r="J29"/>
-      <c r="X29"/>
-      <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30"/>
-      <c r="J30"/>
-      <c r="X30"/>
-      <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31"/>
-      <c r="J31"/>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA32" s="2"/>
-    </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA33" s="2"/>
-    </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA34" s="2"/>
-    </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA35" s="12"/>
-    </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="12"/>
-    </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="12"/>
-    </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="12"/>
-    </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA39" s="12"/>
-    </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="2"/>
-    </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="12"/>
-    </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="12"/>
-    </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="12"/>
-    </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="12"/>
-    </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA45" s="12"/>
-    </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA46" s="12"/>
-    </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="12"/>
-    </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="12"/>
-    </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="12"/>
-    </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="12"/>
-    </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N51" s="14"/>
-      <c r="AA51" s="12"/>
-    </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="12"/>
-    </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="12"/>
-    </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA54" s="12"/>
-    </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="12"/>
-    </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-    </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA57" s="12"/>
-    </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="12"/>
-    </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V59" s="7"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-    </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N60" s="14"/>
-      <c r="AA60" s="12"/>
-    </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="12"/>
-    </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="12"/>
-    </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA63" s="12"/>
-    </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="12"/>
-    </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="12"/>
-    </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="12"/>
-    </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="12"/>
-    </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA68" s="12"/>
-    </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="12"/>
-    </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="12"/>
-    </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="12"/>
-    </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA72" s="12"/>
-    </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="12"/>
-    </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="12"/>
-    </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="12"/>
-    </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="12"/>
-    </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="12"/>
-    </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="12"/>
-    </row>
-    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="Z79" s="7"/>
-      <c r="AA79" s="12"/>
-    </row>
-    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="Z80" s="7"/>
-      <c r="AA80" s="12"/>
-    </row>
-    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="Z81" s="7"/>
-      <c r="AA81" s="12"/>
-    </row>
-    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="Z82" s="7"/>
-      <c r="AA82" s="12"/>
-    </row>
-    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="Z83" s="7"/>
-      <c r="AA83" s="12"/>
-    </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z84" s="7"/>
-      <c r="AA84" s="12"/>
-    </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z85" s="7"/>
-      <c r="AA85" s="12"/>
-    </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="12"/>
-    </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z87" s="7"/>
-      <c r="AA87" s="12"/>
-    </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="12"/>
-    </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="12"/>
-    </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="12"/>
-    </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="7"/>
-      <c r="AA91" s="12"/>
-    </row>
-    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="7"/>
-      <c r="AA92" s="12"/>
-    </row>
-    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y93" s="5"/>
+      <c r="AA16" s="10"/>
+    </row>
+    <row r="17" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="4"/>
+      <c r="AA17" s="10"/>
+    </row>
+    <row r="18" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="10"/>
+    </row>
+    <row r="19" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="10"/>
+    </row>
+    <row r="21" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="23" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA24" s="10"/>
+    </row>
+    <row r="25" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="5"/>
+      <c r="AA25" s="10"/>
+    </row>
+    <row r="26" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y26" s="4"/>
+      <c r="AA26" s="10"/>
+    </row>
+    <row r="27" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y27" s="4"/>
+      <c r="AA27" s="10"/>
+    </row>
+    <row r="35" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA35" s="10"/>
+    </row>
+    <row r="36" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="10"/>
+    </row>
+    <row r="37" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="10"/>
+    </row>
+    <row r="38" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="10"/>
+    </row>
+    <row r="39" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA39" s="10"/>
+    </row>
+    <row r="40" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="10"/>
+    </row>
+    <row r="42" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="10"/>
+    </row>
+    <row r="43" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="10"/>
+    </row>
+    <row r="44" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="10"/>
+    </row>
+    <row r="45" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA45" s="10"/>
+    </row>
+    <row r="46" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA46" s="10"/>
+    </row>
+    <row r="47" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="10"/>
+    </row>
+    <row r="48" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="10"/>
+    </row>
+    <row r="49" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="10"/>
+    </row>
+    <row r="50" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="10"/>
+    </row>
+    <row r="51" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="12"/>
+      <c r="AA51" s="10"/>
+    </row>
+    <row r="52" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="10"/>
+    </row>
+    <row r="53" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="10"/>
+    </row>
+    <row r="54" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA54" s="10"/>
+    </row>
+    <row r="55" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="10"/>
+    </row>
+    <row r="56" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+    </row>
+    <row r="57" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA57" s="10"/>
+    </row>
+    <row r="58" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="10"/>
+    </row>
+    <row r="59" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V59" s="6"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+    </row>
+    <row r="60" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N60" s="12"/>
+      <c r="AA60" s="10"/>
+    </row>
+    <row r="61" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="10"/>
+    </row>
+    <row r="62" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="10"/>
+    </row>
+    <row r="63" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA63" s="10"/>
+    </row>
+    <row r="64" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="10"/>
+    </row>
+    <row r="65" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="10"/>
+    </row>
+    <row r="66" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="10"/>
+    </row>
+    <row r="67" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="10"/>
+    </row>
+    <row r="68" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA68" s="10"/>
+    </row>
+    <row r="69" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="10"/>
+    </row>
+    <row r="70" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="10"/>
+    </row>
+    <row r="71" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="10"/>
+    </row>
+    <row r="72" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA72" s="10"/>
+    </row>
+    <row r="73" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="10"/>
+    </row>
+    <row r="74" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="10"/>
+    </row>
+    <row r="75" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="10"/>
+    </row>
+    <row r="76" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="10"/>
+    </row>
+    <row r="77" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="10"/>
+    </row>
+    <row r="78" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="10"/>
+    </row>
+    <row r="79" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="10"/>
+    </row>
+    <row r="80" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="10"/>
+    </row>
+    <row r="81" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="10"/>
+    </row>
+    <row r="82" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="10"/>
+    </row>
+    <row r="83" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="10"/>
+    </row>
+    <row r="84" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="10"/>
+    </row>
+    <row r="85" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="10"/>
+    </row>
+    <row r="86" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="10"/>
+    </row>
+    <row r="87" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="10"/>
+    </row>
+    <row r="88" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="10"/>
+    </row>
+    <row r="89" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="10"/>
+    </row>
+    <row r="90" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="10"/>
+    </row>
+    <row r="91" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="10"/>
+    </row>
+    <row r="92" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="10"/>
+    </row>
+    <row r="93" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y93" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB92" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
@@ -1740,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
@@ -1751,549 +1628,416 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" customWidth="1"/>
+    <col min="10" max="10" width="83.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H41" s="5"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H42" s="5"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H43" s="5"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="11"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="11"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="11"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="11"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="11"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="11"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="11"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="11"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="11"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="11"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="C70" s="10"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H79" s="5"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H41" s="4"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H42" s="4"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H43" s="4"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C70" s="9"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H79" s="4"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2305,14 +2049,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2331,19 +2075,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2351,8 +2095,8 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>141</v>
+      <c r="B5" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2363,46 +2107,46 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>142</v>
+      <c r="B7" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="18"/>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2420,61 +2164,58 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="b">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="b">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2485,16 +2226,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2504,53 +2244,60 @@
       <c r="B1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="2" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F9967AE0-4EB2-DA45-AA2A-161EBF92181B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="88.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
       <c r="D1" t="s">
@@ -2560,95 +2307,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G27" s="1"/>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2658,29 +2349,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C9:C11"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
+    <col min="16" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="21" width="20.5" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2690,129 +2381,144 @@
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
       <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>71</v>
       </c>
       <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="V34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-    </row>
-    <row r="37" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="Y37" s="7"/>
+    <row r="6" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="33" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="V33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+    </row>
+    <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="Y36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2854,25 +2560,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E3" s="2"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2882,232 +2588,244 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B27" sqref="B27"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="7" width="37.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.5" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="10" width="37.5" customWidth="1"/>
+    <col min="11" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="14" width="22.5" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3126,50 +2844,50 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E5D996-0992-2549-A84C-8E43530B8741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D27CC6-D630-B64B-A805-B5FF48E00223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57540" yWindow="500" windowWidth="34120" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61220" yWindow="500" windowWidth="34120" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="154">
   <si>
     <t>Element</t>
   </si>
@@ -426,31 +426,13 @@
   </si>
   <si>
     <t>revinclude_conf</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
   </si>
   <si>
     <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
 1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
   </si>
   <si>
-    <t>Data Consumer Client CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-consumer-client</t>
-  </si>
-  <si>
     <t>SHALL</t>
-  </si>
-  <si>
-    <t>US Core Client CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-client.html</t>
   </si>
   <si>
     <t>DocumentReference</t>
@@ -525,15 +507,6 @@
 4. Post a subscription notification to a Data Consumer endpoint updating the status of a task.</t>
   </si>
   <si>
-    <t>Documentation Templates and Rules 1.1.0-ballot</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|1.1.0-ballot</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/2022May/index.html</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-sdc-questionnaireresponse</t>
   </si>
   <si>
@@ -553,13 +526,43 @@
   </si>
   <si>
     <t>doc_QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>Documentation Templates and Rules 2.0.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|2.0.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/STU2.0.1/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client|3.1.1</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU3.1.1/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client|6.1.0</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU6.1.0/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>US Core Version 3.1.1 Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>US Core Version 6.1.0 Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>2.1.0-preview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,24 +636,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF005C00"/>
       <name val="Monaco"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -685,12 +674,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -714,17 +702,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,9 +726,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -781,7 +766,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -887,7 +872,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1029,7 +1014,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1062,7 +1047,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1070,7 +1055,7 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2049,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2080,7 +2065,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2096,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2112,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2120,7 +2105,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2136,14 +2121,14 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2160,10 +2145,16 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2185,38 +2176,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>119</v>
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>123</v>
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2229,12 +2220,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="4" max="4" width="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2251,24 +2245,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="16" t="s">
         <v>144</v>
       </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F9967AE0-4EB2-DA45-AA2A-161EBF92181B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2309,36 +2300,36 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>149</v>
+      <c r="E3" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2450,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2470,47 +2461,47 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="33" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V33" s="6"/>
@@ -2562,19 +2553,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2611,22 +2602,22 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
         <v>97</v>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D27CC6-D630-B64B-A805-B5FF48E00223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CBA99D-D5C2-8847-B3CF-B000BFAEAB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61220" yWindow="500" windowWidth="34120" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51360" yWindow="500" windowWidth="34120" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="164">
   <si>
     <t>Element</t>
   </si>
@@ -439,12 +439,6 @@
   </si>
   <si>
     <t>Required resource type to support the `$submit-attachment` operation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
-  </si>
-  <si>
-    <t>US Core DocumentReference Profile</t>
   </si>
   <si>
     <t>conf_DocumentReference</t>
@@ -556,6 +550,42 @@
   </si>
   <si>
     <t>2.1.0-preview</t>
+  </si>
+  <si>
+    <t>US Core Version 7.0.0 Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client|7.0.0</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU7.0.0/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-documentreference.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|3.1.1</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile (Version 3.1.1)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|6.1.0</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile (Version 6.1.0)</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU6.1/StructureDefinition-us-core-documentreference.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|7.0.0</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile (Version 7.0.0)</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-documentreference.html</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1077,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1055,7 +1085,7 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2034,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2065,7 +2095,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2081,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2097,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2121,7 +2151,7 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2142,16 +2172,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896FFC80-FBAD-5B40-A9F0-9F6A2CF3035F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" customWidth="1"/>
     <col min="5" max="5" width="46.33203125" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
@@ -2181,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -2198,15 +2229,32 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>152</v>
       </c>
-      <c r="D3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2247,13 +2295,13 @@
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
         <v>144</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
@@ -2266,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2281,7 +2329,7 @@
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2298,38 +2346,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="D5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2450,7 +2538,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2461,7 +2549,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2477,7 +2565,7 @@
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -2488,13 +2576,13 @@
     </row>
     <row r="6" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2553,19 +2641,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
         <v>124</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2602,22 +2690,22 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
         <v>97</v>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CBA99D-D5C2-8847-B3CF-B000BFAEAB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09F5699-C284-2C4B-BA03-B470910C28A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51360" yWindow="500" windowWidth="34120" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="500" windowWidth="34120" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -347,12 +347,6 @@
     <t>http://hl7.org/fhir/us/davinci-cdex/</t>
   </si>
   <si>
-    <t>HL7 International - Patient Care Work Group</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
-  </si>
-  <si>
     <t>transaction</t>
   </si>
   <si>
@@ -549,9 +543,6 @@
     <t>US Core Version 6.1.0 Client CapabilityStatement</t>
   </si>
   <si>
-    <t>2.1.0-preview</t>
-  </si>
-  <si>
     <t>US Core Version 7.0.0 Client CapabilityStatement</t>
   </si>
   <si>
@@ -586,6 +577,15 @@
   </si>
   <si>
     <t>https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-documentreference.html</t>
+  </si>
+  <si>
+    <t>HL7 International / Payer/Provider Information Exchange Work Group</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/claims</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1077,15 +1077,15 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
-        <v>126</v>
+      <c r="B3" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
         <v>82</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1125,12 +1125,12 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -2064,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2087,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2095,7 +2095,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2111,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2127,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2135,34 +2135,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896FFC80-FBAD-5B40-A9F0-9F6A2CF3035F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2189,16 +2189,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
         <v>84</v>
@@ -2212,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -2229,13 +2229,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
@@ -2246,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2268,7 +2268,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2284,7 +2284,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>84</v>
@@ -2295,13 +2295,13 @@
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
         <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" t="s">
-        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
@@ -2348,76 +2348,76 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>137</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2518,71 +2518,71 @@
         <v>72</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2641,19 +2641,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2690,34 +2690,34 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>98</v>
-      </c>
-      <c r="J1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2777,13 +2777,13 @@
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2940,7 +2940,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>

--- a/input/resources-spreadsheet/data-source-client.xlsx
+++ b/input/resources-spreadsheet/data-source-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09F5699-C284-2C4B-BA03-B470910C28A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED857B-2698-4541-BB05-10C9CFECF75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="500" windowWidth="34120" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="500" windowWidth="34120" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -516,15 +516,6 @@
     <t>doc_QuestionnaireResponse</t>
   </si>
   <si>
-    <t>Documentation Templates and Rules 2.0.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|2.0.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/STU2.0.1/index.html</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client|3.1.1</t>
   </si>
   <si>
@@ -586,6 +577,15 @@
   </si>
   <si>
     <t>2.1.0</t>
+  </si>
+  <si>
+    <t>Documentation Templates and Rules 2.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|2.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/STU2.1/index.html</t>
   </si>
 </sst>
 </file>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1109,7 @@
         <v>82</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1125,7 +1125,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2064,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2095,7 +2095,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2212,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -2229,13 +2229,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
@@ -2246,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2267,7 +2267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2295,13 +2295,13 @@
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>115</v>
@@ -2367,13 +2367,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>115</v>
@@ -2386,13 +2386,13 @@
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>115</v>
